--- a/web104/web_parameter.xlsx
+++ b/web104/web_parameter.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="area" sheetId="2" r:id="rId2"/>
+    <sheet name="catetory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ro</t>
   </si>
@@ -102,6 +104,48 @@
   </si>
   <si>
     <t>三日內</t>
+  </si>
+  <si>
+    <t>2001000000</t>
+  </si>
+  <si>
+    <t>6001016000</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>連結符號</t>
+  </si>
+  <si>
+    <t>%2C</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>6001018000</t>
+  </si>
+  <si>
+    <t>6001011000</t>
+  </si>
+  <si>
+    <t>6001012000</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>新竹縣市</t>
+  </si>
+  <si>
+    <t>6003000000</t>
+  </si>
+  <si>
+    <t>其他亞洲</t>
   </si>
 </sst>
 </file>
@@ -436,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,8 +511,8 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>2001000000</v>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -570,4 +614,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web104/web_parameter.xlsx
+++ b/web104/web_parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>ro</t>
   </si>
@@ -146,6 +146,60 @@
   </si>
   <si>
     <t>其他亞洲</t>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/jobs/search/list?ro=0&amp;jobcat=2007000000&amp;area=6003000000%2C6002000000&amp;order=11&amp;asc=0&amp;page=2&amp;mode=s&amp;jobsource=2018indexpoc&amp;isnew=3</t>
+  </si>
+  <si>
+    <t>6001016000%2C6001018000%2C6001011000%2C6001012000%2C6001016000</t>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/jobs/search/list?ro=0&amp;jobcat=2007000000&amp;area=6001016000%2C6001018000%2C6001011000%2C6001012000%2C6001016000&amp;order=11&amp;asc=0&amp;page=2&amp;mode=s&amp;jobsource=2018indexpoc&amp;isnew=3</t>
+  </si>
+  <si>
+    <t>薪資條件</t>
+  </si>
+  <si>
+    <t>sctp</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>scmin</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>scmax</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>目前未知</t>
+  </si>
+  <si>
+    <t>jobexp</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5-10年</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>scstrict</t>
+  </si>
+  <si>
+    <t>scneg</t>
   </si>
 </sst>
 </file>
@@ -192,11 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,30 +641,100 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A24" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -618,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +755,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -638,15 +763,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="str">
+        <f>A3&amp;"%2C"&amp;A4&amp;"%2C"&amp;A5&amp;"%2C"&amp;A6&amp;"%2C"&amp;A7</f>
+        <v>6001016000%2C6001018000%2C6001011000%2C6001012000%2C6001016000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -654,7 +783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -662,7 +791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -670,7 +799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -678,7 +807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -686,7 +815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,9 +823,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A16" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
